--- a/documentation/0 architecture/design/logging/logging-policy.xlsx
+++ b/documentation/0 architecture/design/logging/logging-policy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="18315" windowHeight="10080"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,62 @@
   </si>
   <si>
     <t>백업 보관 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middleware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 생성 주체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception Stacktrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start / End / Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Service Send / Receive / Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +220,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,21 +514,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -511,7 +738,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -523,7 +750,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -535,7 +762,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +774,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -563,110 +790,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>